--- a/what/olahraga/df_result_lda.xlsx
+++ b/what/olahraga/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['melebar', 'kiper', 'bermain', 'babak', 'kotak_penalti', 'gawang', 'serangan', 'sepakan', 'peluang', 'umpan_silang', 'laga', 'menit', 'gol']</t>
+          <t>['kiper', 'babak', 'peluang', 'gol', 'kotak_penalti', 'sepakan', 'umpan', 'melebar', 'laga', 'menit', 'serangan', 'bermain', 'bola', 'gawang']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['langsung', 'turnamen']</t>
+          <t>['bermain', 'turnamen', 'langsung']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -610,7 +610,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['kompetisi', 'musim', 'bola', 'psm', 'bernardo_tavares', 'pemain', 'berhasil', 'juku_eja', 'lini', 'lawan', 'liga', 'psm_makassar', 'pelatih', 'tim']</t>
+          <t>['sepak_bola', 'psm', 'kompetisi', 'berhasil', 'lawan', 'umpan', 'bagus', 'liga', 'lini', 'pelatih', 'pemain', 'bernardo_tavares', 'musim', 'juku_eja', 'bola', 'psm_makassar', 'tim']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['bermain', 'skor', 'musim', 'pertandingan', 'langsung', 'nama', 'pemain', 'berhasil', 'portugal', 'timnas', 'kali', 'maroko', 'hasil', 'prancis', 'sepak_bola', 'stadion', 'terkait', 'piala_dunia', 'klub', 'lawan', 'dunia', 'qatar', 'laga', 'pelatih', 'menit', 'tim', 'ketiga', 'tembakan']</t>
+          <t>['klub', 'stadion', 'lawan', 'qatar', 'liga', 'dunia', 'timnas', 'piala_dunia', 'berhasil', 'terkait', 'kali', 'menit', 'pemain', 'pelatih', 'maroko', 'skor', 'laga', 'portugal', 'bermain', 'sepak_bola', 'musim', 'tim', 'prancis', 'pertandingan', 'langsung', 'inggris', 'gol', 'tembakan', 'ketiga', 'nama', 'hasil']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['poin', 'inggris', 'kiper', 'umpan', 'babak', 'kotak_penalti', 'gawang', 'gol', 'melepaskan_tembakan', 'pertandingan', 'serangan', 'langsung', 'bola', 'sepak_pojok', 'berhasil', 'kali', 'sepakan', 'hasil', 'peluang', 'menit', 'tim', 'tembakan', 'kalah']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'liga', 'sepak_pojok', 'kiper', 'sepakan', 'berhasil', 'kali', 'menit', 'kalah', 'bola', 'babak', 'umpan', 'laga', 'serangan', 'tim', 'pertandingan', 'langsung', 'poin', 'peluang', 'inggris', 'gol', 'tembakan', 'unggul', 'hasil', 'gawang']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['poin', 'skor', 'borneo', 'pertandingan', 'menang', 'madura_united', 'psm', 'pemain', 'kalah', 'kemenangan', 'memiliki', 'sepak_bola', 'lawan', 'psm_makassar', 'laga', 'pelatih', 'tim', 'hasil', 'liga']</t>
+          <t>['lawan', 'liga', 'bernardo_tavares', 'psm_makassar', 'kemenangan', 'pemain', 'kalah', 'pelatih', 'skor', 'menang', 'bagus', 'laga', 'portugal', 'sepak_bola', 'tim', 'pertandingan', 'poin', 'madura_united', 'psm', 'borneo', 'melawan', 'memiliki', 'hasil']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -989,7 +989,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['nasional', 'pertandingan', 'langsung', 'nama', 'melawan', 'memiliki', 'hasil', 'sepak_bola', 'stadion', 'terkait', 'klub', 'lawan', 'liga', 'laga', 'tim']</t>
+          <t>['nasional', 'klub', 'melawan', 'stadion', 'lawan', 'terkait', 'memiliki', 'liga', 'nama', 'jakarta', 'laga', 'sepak_bola', 'hasil', 'tim', 'pertandingan', 'langsung']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['poin', 'gol', 'pertandingan', 'serangan', 'madura_united', 'psm', 'pemain', 'berhasil', 'juku_eja', 'kalah', 'memiliki', 'lini', 'lawan', 'liga', 'psm_makassar', 'laga', 'menit']</t>
+          <t>['lawan', 'liga', 'psm_makassar', 'berhasil', 'menit', 'pemain', 'kalah', 'menang', 'laga', 'serangan', 'sepak_bola', 'juku_eja', 'pertandingan', 'poin', 'madura_united', 'psm', 'gol', 'memiliki', 'lini']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['poin', 'bermain', 'borneo', 'unggul', 'madura_united', 'psm', 'bernardo_tavares', 'pemain', 'berhasil', 'juku_eja', 'melawan', 'hasil', 'lini', 'liga', 'psm_makassar', 'laga', 'pelatih', 'menit', 'tim']</t>
+          <t>['liga', 'bernardo_tavares', 'psm_makassar', 'berhasil', 'menit', 'pemain', 'pelatih', 'laga', 'portugal', 'bermain', 'sepak_bola', 'juku_eja', 'tim', 'poin', 'madura_united', 'psm', 'borneo', 'gol', 'melawan', 'unggul', 'lini', 'hasil']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['kiper', 'babak', 'kotak_penalti', 'gawang', 'skor', 'gol', 'melepaskan_tembakan', 'serangan', 'menang', 'bola', 'kemenangan', 'sepakan', 'maroko', 'hasil', 'peluang', 'kerja', 'dunia', 'laga', 'menit', 'tendangan']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'sepak_pojok', 'kiper', 'kemenangan', 'piala_dunia', 'sepakan', 'menit', 'tendangan', 'bola', 'maroko', 'skor', 'kerja', 'babak', 'menang', 'umpan', 'laga', 'serangan', 'wasit', 'langsung', 'poin', 'peluang', 'gol', 'hasil', 'gawang']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['poin', 'kiper', 'umpan', 'bermain', 'babak', 'kotak_penalti', 'skor', 'borneo', 'gol', 'melepaskan_tembakan', 'unggul', 'pertandingan', 'serangan', 'langsung', 'lapangan', 'bola', 'madura_united', 'psm', 'sepak_pojok', 'pemain', 'berhasil', 'juku_eja', 'kali', 'kemenangan', 'wasit', 'hasil', 'peluang', 'lini', 'lawan', 'psm_makassar', 'laga', 'menit', 'tim', 'ketiga', 'tendangan', 'gawang']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'lawan', 'liga', 'sepak_pojok', 'bernardo_tavares', 'psm_makassar', 'kiper', 'kemenangan', 'berhasil', 'kali', 'menit', 'pemain', 'pelatih', 'tendangan', 'bola', 'skor', 'babak', 'lapangan', 'umpan', 'laga', 'serangan', 'bermain', 'juku_eja', 'tim', 'pertandingan', 'langsung', 'wasit', 'poin', 'madura_united', 'peluang', 'psm', 'gol', 'borneo', 'melawan', 'unggul', 'ketiga', 'lini', 'hasil', 'gawang']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['poin', 'kiper', 'babak', 'kotak_penalti', 'gawang', 'skor', 'gol', 'pertandingan', 'serangan', 'bola', 'peluang', 'stadion', 'lawan', 'liga', 'laga', 'menit', 'tim', 'tembakan', 'hasil']</t>
+          <t>['kotak_penalti', 'stadion', 'lawan', 'liga', 'sepak_pojok', 'kiper', 'menit', 'bola', 'skor', 'babak', 'umpan', 'laga', 'serangan', 'tim', 'pertandingan', 'poin', 'peluang', 'gol', 'tembakan', 'hasil', 'gawang']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['inggris', 'kompetisi', 'nasional', 'kiper', 'negara', 'bermain', 'nama', 'berhasil', 'portugal', 'kali', 'indonesia', 'memiliki', 'maroko', 'prancis', 'sepak_bola', 'piala_dunia', 'dunia', 'qatar', 'tim', 'ketiga']</t>
+          <t>['qatar', 'dunia', 'timnas', 'kiper', 'kompetisi', 'piala_dunia', 'berhasil', 'kali', 'indonesia', 'negara', 'maroko', 'babak', 'nasional', 'portugal', 'bermain', 'sepak_bola', 'musim', 'tim', 'prancis', 'langsung', 'inggris', 'ketiga', 'memiliki', 'nama']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['inggris', 'babak', 'kotak_penalti', 'gawang', 'skor', 'menghadapi', 'gol', 'melepaskan_tembakan', 'langsung', 'bola', 'sepak_pojok', 'pemain', 'portugal', 'kali', 'wasit', 'maroko', 'peluang', 'prancis', 'umpan_silang', 'dunia', 'laga', 'menit', 'tendangan', 'tembakan', 'menang', 'hasil']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'sepak_pojok', 'piala_dunia', 'kali', 'menit', 'pemain', 'tendangan', 'bola', 'maroko', 'skor', 'babak', 'menang', 'umpan', 'menghadapi', 'laga', 'portugal', 'prancis', 'langsung', 'wasit', 'peluang', 'inggris', 'gol', 'tembakan', 'hasil', 'gawang']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['pertandingan', 'bola', 'sepakbola', 'memiliki', 'dunia']</t>
+          <t>['sepakbola', 'memiliki', 'indonesia', 'dunia', 'sepak_bola', 'bola', 'pertandingan']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['negara', 'pertandingan', 'sepakbola', 'portugal', 'kali', 'memiliki', 'sepak_bola', 'klub', 'liga']</t>
+          <t>['sepakbola', 'inggris', 'klub', 'kali', 'memiliki', 'liga', 'portugal', 'negara', 'musim', 'sepak_bola', 'pertandingan']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['babak', 'kotak_penalti', 'gawang', 'bernardo', 'gol', 'melepaskan_tembakan', 'unggul', 'pertandingan', 'serangan', 'menang', 'sepak_pojok', 'pemain', 'portugal', 'melawan', 'kemenangan', 'wasit', 'piala_dunia', 'laga', 'menit', 'tendangan']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'lawan', 'sepak_pojok', 'kiper', 'kemenangan', 'piala_dunia', 'kali', 'menit', 'pemain', 'tendangan', 'bola', 'bernardo', 'skor', 'babak', 'menang', 'umpan', 'laga', 'portugal', 'serangan', 'pertandingan', 'wasit', 'poin', 'peluang', 'gol', 'tembakan', 'melawan', 'unggul', 'gawang']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['poin', 'babak', 'menghadapi', 'gol', 'unggul', 'lapangan', 'sepakbola', 'pemain', 'kali', 'melawan', 'memiliki', 'sepak_bola', 'piala_dunia', 'lawan', 'dunia', 'qatar', 'laga', 'bagus']</t>
+          <t>['lawan', 'qatar', 'sepakbola', 'kemenangan', 'piala_dunia', 'kali', 'pemain', 'kalah', 'pelatih', 'babak', 'menang', 'lapangan', 'bagus', 'menghadapi', 'laga', 'sepak_bola', 'poin', 'gol', 'melawan', 'unggul', 'memiliki', 'gawang']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['inggris', 'negara', 'bermain', 'babak', 'messi', 'gol', 'pertandingan', 'menang', 'argentina', 'pemain', 'kali', 'kalah', 'kemenangan', 'lionel_messi', 'memiliki', 'final', 'maroko', 'prancis', 'sepak_bola', 'piala_dunia', 'dunia', 'qatar', 'laga', 'pelatih', 'menit', 'tim', 'ketiga']</t>
+          <t>['final', 'qatar', 'dunia', 'kemenangan', 'piala_dunia', 'argentina', 'kali', 'menit', 'pemain', 'negara', 'kalah', 'pelatih', 'messi', 'maroko', 'skor', 'babak', 'menang', 'laga', 'bermain', 'sepak_bola', 'tim', 'prancis', 'pertandingan', 'inggris', 'gol', 'ketiga', 'memiliki', 'hasil']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['poin', 'bermain', 'kotak_penalti', 'bernardo', 'musim', 'psm', 'aturan', 'wasit', 'lawan', 'liga', 'psm_makassar', 'laga', 'tim', 'bagus', 'pelatih']</t>
+          <t>['kotak_penalti', 'stadion', 'lawan', 'liga', 'bernardo_tavares', 'psm_makassar', 'pelatih', 'bernardo', 'bagus', 'menghadapi', 'laga', 'bermain', 'sepak_bola', 'juku_eja', 'musim', 'tim', 'wasit', 'poin', 'psm', 'aturan', 'hasil']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['bola', 'juku_eja', 'kali', 'indonesia', 'sepak_bola', 'klub', 'psm_makassar', 'psm', 'liga']</t>
+          <t>['sepak_bola', 'kompetisi', 'psm', 'klub', 'stadion', 'kali', 'liga', 'indonesia', 'pelatih', 'juku_eja', 'bola', 'psm_makassar']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['bermain', 'bernardo', 'borneo', 'pertandingan', 'bola', 'nama', 'psm', 'bernardo_tavares', 'aturan', 'pemain', 'juku_eja', 'kali', 'sepak_bola', 'liga', 'psm_makassar', 'pelatih', 'tim', 'lawan']</t>
+          <t>['lawan', 'liga', 'bernardo_tavares', 'psm_makassar', 'kali', 'menit', 'indonesia', 'pemain', 'pelatih', 'bernardo', 'menghadapi', 'bermain', 'sepak_bola', 'juku_eja', 'tim', 'pertandingan', 'wasit', 'peluang', 'psm', 'borneo', 'aturan', 'melawan', 'lini', 'nama']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['nasional', 'atlet', 'pertandingan', 'langsung', 'klub', 'laga', 'bagus']</t>
+          <t>['nasional', 'klub', 'atlet', 'bagus', 'jakarta', 'laga', 'indonesia', 'sepak_bola', 'bola', 'pertandingan', 'langsung']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['kompetisi', 'bermain', 'musim', 'atlet', 'pertandingan', 'langsung', 'lapangan', 'madura_united', 'psm', 'bernardo_tavares', 'pemain', 'sepak_bola', 'stadion', 'liga', 'psm_makassar', 'laga', 'tim', 'bernardo']</t>
+          <t>['stadion', 'liga', 'bernardo_tavares', 'psm_makassar', 'kompetisi', 'atlet', 'pemain', 'pelatih', 'bernardo', 'lapangan', 'laga', 'musim', 'sepak_bola', 'bermain', 'tim', 'pertandingan', 'langsung', 'madura_united', 'psm', 'melawan']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['bermain', 'menghadapi', 'bernardo', 'gol', 'pertandingan', 'bola', 'madura_united', 'psm', 'pemain', 'juku_eja', 'peluang', 'lini', 'kerja', 'liga', 'psm_makassar', 'laga', 'pelatih', 'tim', 'bagus', 'skor']</t>
+          <t>['stadion', 'liga', 'bernardo_tavares', 'psm_makassar', 'pemain', 'pelatih', 'bola', 'bernardo', 'skor', 'kerja', 'bagus', 'menghadapi', 'laga', 'bermain', 'sepak_bola', 'juku_eja', 'tim', 'pertandingan', 'madura_united', 'peluang', 'psm', 'gol', 'borneo', 'melawan', 'lini', 'gawang']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['poin', 'bermain', 'bernardo', 'borneo', 'psm', 'bernardo_tavares', 'pemain', 'kemenangan', 'peluang', 'sepak_bola', 'liga', 'psm_makassar', 'laga', 'tim', 'bagus']</t>
+          <t>['lawan', 'liga', 'bernardo_tavares', 'psm_makassar', 'kemenangan', 'menit', 'pemain', 'pelatih', 'bernardo', 'kerja', 'bagus', 'menghadapi', 'laga', 'bermain', 'sepak_bola', 'tim', 'poin', 'peluang', 'psm', 'borneo', 'melawan', 'lini']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['indonesia', 'turnamen', 'dunia', 'kompetisi']</t>
+          <t>['turnamen', 'kompetisi', 'indonesia', 'dunia', 'hasil']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['poin', 'melebar', 'umpan', 'babak', 'kotak_penalti', 'gawang', 'skor', 'gol', 'melepaskan_tembakan', 'unggul', 'pertandingan', 'bola', 'sepak_pojok', 'pemain', 'kemenangan', 'sepakan', 'hasil', 'peluang', 'stadion', 'kerja', 'laga', 'menit', 'ketiga', 'bagus']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'stadion', 'sepak_pojok', 'kemenangan', 'sepakan', 'menit', 'pemain', 'bola', 'skor', 'kerja', 'babak', 'umpan', 'bagus', 'laga', 'bermain', 'tim', 'melebar', 'pertandingan', 'wasit', 'poin', 'peluang', 'gol', 'tembakan', 'unggul', 'ketiga', 'lini', 'hasil', 'gawang']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['lapangan', 'kali', 'melawan', 'sepak_bola']</t>
+          <t>['sepak_bola', 'lapangan', 'melawan', 'kali']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['kompetisi', 'bernardo', 'pertandingan', 'bola', 'bernardo_tavares', 'indonesia', 'sepak_bola', 'liga', 'psm_makassar', 'pelatih', 'tim', 'bagus', 'psm']</t>
+          <t>['sepak_bola', 'kompetisi', 'psm', 'stadion', 'bagus', 'liga', 'portugal', 'indonesia', 'bernardo_tavares', 'tim', 'pelatih', 'bola', 'psm_makassar', 'bernardo', 'pertandingan']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['bermain', 'babak', 'pertandingan', 'nama', 'pemain', 'olahraga', 'prancis', 'sepak_bola', 'piala_dunia', 'tim']</t>
+          <t>['babak', 'piala_dunia', 'gol', 'olahraga', 'nama', 'pemain', 'bermain', 'sepak_bola', 'tim', 'prancis', 'pertandingan']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['poin', 'babak', 'gol', 'pertandingan', 'serangan', 'madura_united', 'psm', 'pemain', 'kali', 'kalah', 'psm_makassar', 'laga', 'menit', 'tim']</t>
+          <t>['stadion', 'timnas', 'psm_makassar', 'kali', 'menit', 'indonesia', 'pemain', 'kalah', 'pelatih', 'kerja', 'babak', 'menang', 'laga', 'serangan', 'sepak_bola', 'juku_eja', 'tim', 'pertandingan', 'poin', 'madura_united', 'psm', 'gol']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['umpan', 'bermain', 'babak', 'kotak_penalti', 'skor', 'menghadapi', 'gol', 'melepaskan_tembakan', 'pertandingan', 'serangan', 'langsung', 'bola', 'psm', 'bernardo_tavares', 'pemain', 'lini', 'psm_makassar', 'laga', 'menit', 'tim', 'tembakan']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'liga', 'bernardo_tavares', 'psm_makassar', 'kiper', 'sepakan', 'menit', 'pemain', 'tendangan', 'bola', 'skor', 'babak', 'umpan', 'menghadapi', 'laga', 'serangan', 'bermain', 'juku_eja', 'tim', 'melebar', 'pertandingan', 'langsung', 'peluang', 'psm', 'gol', 'lini', 'gawang']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['jakarta', 'musim', 'pertandingan', 'berhasil', 'kalah', 'stadion', 'klub', 'laga']</t>
+          <t>['klub', 'berhasil', 'stadion', 'laga', 'indonesia', 'musim', 'kalah', 'jakarta', 'pertandingan']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['babak', 'kotak_penalti', 'gawang', 'melepaskan_tembakan', 'pertandingan', 'portugal', 'laga', 'menit']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'lawan', 'sepak_pojok', 'kiper', 'kali', 'menit', 'pemain', 'tendangan', 'bola', 'babak', 'umpan', 'laga', 'portugal', 'pertandingan', 'wasit', 'gol', 'tembakan', 'unggul', 'gawang']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['kiper', 'babak', 'gol', 'pertandingan', 'serangan', 'lapangan', 'sepak_pojok', 'wasit', 'kerja', 'piala_dunia', 'lawan', 'laga', 'menit', 'tim']</t>
+          <t>['lawan', 'sepak_pojok', 'kiper', 'piala_dunia', 'sepakan', 'menit', 'pemain', 'bola', 'kerja', 'babak', 'lapangan', 'umpan', 'laga', 'serangan', 'tim', 'pertandingan', 'wasit', 'peluang', 'gol', 'gawang']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['poin', 'melebar', 'kiper', 'bermain', 'babak', 'kotak_penalti', 'gawang', 'skor', 'menghadapi', 'gol', 'melepaskan_tembakan', 'unggul', 'pertandingan', 'serangan', 'lapangan', 'bola', 'sepak_pojok', 'pemain', 'berhasil', 'kali', 'sepakan', 'kerja', 'piala_dunia', 'umpan_silang', 'dunia', 'qatar', 'laga', 'menit', 'tim', 'ketiga', 'tembakan', 'hasil']</t>
+          <t>['melepaskan_tembakan', 'kotak_penalti', 'qatar', 'sepak_pojok', 'dunia', 'kiper', 'piala_dunia', 'sepakan', 'berhasil', 'kali', 'menit', 'pemain', 'bola', 'skor', 'kerja', 'babak', 'lapangan', 'umpan', 'menghadapi', 'laga', 'serangan', 'bermain', 'melebar', 'tim', 'pertandingan', 'langsung', 'poin', 'peluang', 'gol', 'tembakan', 'unggul', 'ketiga', 'hasil', 'gawang']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['inggris', 'atlet', 'pertandingan', 'langsung', 'bola', 'sepakbola', 'pemain', 'berhasil', 'memiliki', 'sepak_bola', 'piala_dunia', 'dunia', 'qatar', 'tim', 'timnas']</t>
+          <t>['sepakbola', 'nasional', 'piala_dunia', 'inggris', 'atlet', 'berhasil', 'memiliki', 'qatar', 'pemain', 'dunia', 'timnas', 'sepak_bola', 'bola', 'tim', 'pertandingan', 'langsung']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['poin', 'kompetisi', 'bermain', 'skor', 'borneo', 'gol', 'unggul', 'psm', 'pemain', 'berhasil', 'kali', 'kalah', 'melawan', 'psm_makassar', 'laga', 'pelatih', 'tim', 'bagus', 'menang', 'liga']</t>
+          <t>['stadion', 'lawan', 'liga', 'psm_makassar', 'kemenangan', 'kompetisi', 'berhasil', 'kali', 'pemain', 'kalah', 'pelatih', 'skor', 'menang', 'bagus', 'menghadapi', 'laga', 'bermain', 'sepak_bola', 'tim', 'poin', 'psm', 'borneo', 'gol', 'melawan', 'unggul']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['jakarta', 'berhasil', 'kali', 'olahraga', 'memiliki', 'sepak_bola', 'stadion', 'kerja', 'terkait']</t>
+          <t>['kerja', 'berhasil', 'stadion', 'kali', 'memiliki', 'jakarta', 'olahraga', 'sepak_bola', 'terkait']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['babak', 'menghadapi', 'atlet', 'pertandingan', 'lapangan', 'pemain', 'indonesia', 'turnamen', 'final']</t>
+          <t>['turnamen', 'babak', 'atlet', 'lapangan', 'menghadapi', 'final', 'indonesia', 'pemain', 'pelatih', 'pertandingan']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['umpan', 'bermain', 'babak', 'kotak_penalti', 'gawang', 'skor', 'gol', 'pertandingan', 'serangan', 'langsung', 'bola', 'sepak_pojok', 'pemain', 'kali', 'wasit', 'peluang', 'laga', 'menit', 'tim', 'tendangan']</t>
+          <t>['kotak_penalti', 'stadion', 'liga', 'sepak_pojok', 'kiper', 'kali', 'menit', 'pemain', 'tendangan', 'bola', 'skor', 'babak', 'umpan', 'laga', 'serangan', 'bermain', 'tim', 'pertandingan', 'wasit', 'langsung', 'peluang', 'gol', 'gawang']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['nasional', 'bermain', 'pertandingan', 'langsung', 'sepakbola', 'nama', 'argentina', 'pemain', 'lionel_messi', 'turnamen', 'memiliki', 'sepak_bola', 'piala_dunia', 'klub', 'dunia', 'qatar', 'laga', 'pelatih', 'tim', 'messi']</t>
+          <t>['turnamen', 'klub', 'final', 'qatar', 'dunia', 'timnas', 'sepakbola', 'piala_dunia', 'argentina', 'pemain', 'pelatih', 'messi', 'nasional', 'laga', 'bermain', 'sepak_bola', 'tim', 'pertandingan', 'langsung', 'memiliki', 'nama']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['nasional', 'atlet', 'nama', 'basket', 'kali', 'indonesia', 'olahraga', 'memiliki', 'lini', 'klub', 'dunia', 'bagus']</t>
+          <t>['nasional', 'klub', 'atlet', 'kali', 'bagus', 'memiliki', 'nama', 'indonesia', 'dunia', 'olahraga', 'lini', 'basket']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['pertandingan', 'langsung', 'sepakbola', 'argentina', 'timnas', 'indonesia', 'memiliki', 'sepak_bola', 'tim']</t>
+          <t>['sepakbola', 'argentina', 'memiliki', 'indonesia', 'timnas', 'sepak_bola', 'tim', 'pertandingan', 'langsung']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['sepakbola', 'pemain', 'indonesia', 'sepak_bola', 'klub', 'tim']</t>
+          <t>['sepakbola', 'klub', 'liga', 'indonesia', 'pemain', 'sepak_bola', 'tim']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['poin', 'umpan', 'bermain', 'babak', 'gawang', 'skor', 'musim', 'gol', 'unggul', 'pertandingan', 'bola', 'sepak_pojok', 'kalah', 'kemenangan', 'menit', 'tim', 'menang']</t>
+          <t>['sepak_pojok', 'kemenangan', 'menit', 'kalah', 'bola', 'skor', 'babak', 'menang', 'umpan', 'laga', 'bermain', 'musim', 'tim', 'pertandingan', 'poin', 'inggris', 'gol', 'unggul', 'hasil', 'gawang']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['poin', 'negara', 'psm', 'pemain', 'juku_eja', 'timnas', 'kali', 'indonesia', 'memiliki', 'hasil', 'klub', 'liga', 'psm_makassar', 'pelatih', 'tim', 'ketiga', 'bagus']</t>
+          <t>['klub', 'liga', 'bernardo_tavares', 'timnas', 'psm_makassar', 'kemenangan', 'kompetisi', 'kali', 'indonesia', 'pemain', 'negara', 'pelatih', 'skor', 'bagus', 'sepak_bola', 'juku_eja', 'tim', 'poin', 'psm', 'gol', 'ketiga', 'memiliki', 'hasil']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['pertandingan', 'indonesia', 'dunia']</t>
+          <t>['indonesia', 'dunia', 'pertandingan']</t>
         </is>
       </c>
       <c r="F50" t="n">

--- a/what/olahraga/df_result_lda.xlsx
+++ b/what/olahraga/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kiper', 'babak', 'peluang', 'gol', 'kotak_penalti', 'sepakan', 'umpan', 'melebar', 'laga', 'menit', 'serangan', 'bermain', 'bola', 'gawang']</t>
+          <t>['peluang', 'sepakan', 'menit', 'gawang', 'umpan', 'bermain', 'kotak_penalti', 'melebar', 'gol', 'kiper', 'laga', 'bola', 'serangan', 'babak']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['bermain', 'turnamen', 'langsung']</t>
+          <t>['langsung', 'turnamen', 'bermain']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -610,7 +610,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['sepak_bola', 'psm', 'kompetisi', 'berhasil', 'lawan', 'umpan', 'bagus', 'liga', 'lini', 'pelatih', 'pemain', 'bernardo_tavares', 'musim', 'juku_eja', 'bola', 'psm_makassar', 'tim']</t>
+          <t>['psm_makassar', 'musim', 'sepak_bola', 'berhasil', 'juku_eja', 'liga', 'pemain', 'lawan', 'umpan', 'bagus', 'pelatih', 'bernardo_tavares', 'bola', 'kompetisi', 'psm', 'lini', 'tim']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['klub', 'stadion', 'lawan', 'qatar', 'liga', 'dunia', 'timnas', 'piala_dunia', 'berhasil', 'terkait', 'kali', 'menit', 'pemain', 'pelatih', 'maroko', 'skor', 'laga', 'portugal', 'bermain', 'sepak_bola', 'musim', 'tim', 'prancis', 'pertandingan', 'langsung', 'inggris', 'gol', 'tembakan', 'ketiga', 'nama', 'hasil']</t>
+          <t>['skor', 'maroko', 'pelatih', 'bermain', 'langsung', 'qatar', 'prancis', 'hasil', 'musim', 'menit', 'stadion', 'pertandingan', 'timnas', 'portugal', 'terkait', 'laga', 'ketiga', 'tim', 'sepak_bola', 'kali', 'lawan', 'gol', 'tembakan', 'dunia', 'klub', 'inggris', 'berhasil', 'liga', 'pemain', 'nama', 'piala_dunia']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'liga', 'sepak_pojok', 'kiper', 'sepakan', 'berhasil', 'kali', 'menit', 'kalah', 'bola', 'babak', 'umpan', 'laga', 'serangan', 'tim', 'pertandingan', 'langsung', 'poin', 'peluang', 'inggris', 'gol', 'tembakan', 'unggul', 'hasil', 'gawang']</t>
+          <t>['peluang', 'langsung', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'pertandingan', 'kiper', 'laga', 'bola', 'serangan', 'tim', 'kali', 'kalah', 'gol', 'tembakan', 'sepak_pojok', 'inggris', 'berhasil', 'sepakan', 'poin', 'liga', 'umpan', 'kotak_penalti', 'unggul']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['lawan', 'liga', 'bernardo_tavares', 'psm_makassar', 'kemenangan', 'pemain', 'kalah', 'pelatih', 'skor', 'menang', 'bagus', 'laga', 'portugal', 'sepak_bola', 'tim', 'pertandingan', 'poin', 'madura_united', 'psm', 'borneo', 'melawan', 'memiliki', 'hasil']</t>
+          <t>['skor', 'memiliki', 'menang', 'bagus', 'psm_makassar', 'hasil', 'pertandingan', 'melawan', 'borneo', 'portugal', 'laga', 'tim', 'sepak_bola', 'lawan', 'madura_united', 'kalah', 'kemenangan', 'psm', 'poin', 'liga', 'pemain', 'pelatih', 'bernardo_tavares']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -989,7 +989,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['nasional', 'klub', 'melawan', 'stadion', 'lawan', 'terkait', 'memiliki', 'liga', 'nama', 'jakarta', 'laga', 'sepak_bola', 'hasil', 'tim', 'pertandingan', 'langsung']</t>
+          <t>['klub', 'hasil', 'sepak_bola', 'liga', 'lawan', 'stadion', 'pertandingan', 'memiliki', 'nasional', 'langsung', 'melawan', 'nama', 'terkait', 'laga', 'jakarta', 'tim']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['lawan', 'liga', 'psm_makassar', 'berhasil', 'menit', 'pemain', 'kalah', 'menang', 'laga', 'serangan', 'sepak_bola', 'juku_eja', 'pertandingan', 'poin', 'madura_united', 'psm', 'gol', 'memiliki', 'lini']</t>
+          <t>['memiliki', 'menang', 'psm_makassar', 'menit', 'pertandingan', 'laga', 'serangan', 'sepak_bola', 'lawan', 'madura_united', 'kalah', 'gol', 'psm', 'berhasil', 'poin', 'juku_eja', 'liga', 'pemain', 'lini']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['liga', 'bernardo_tavares', 'psm_makassar', 'berhasil', 'menit', 'pemain', 'pelatih', 'laga', 'portugal', 'bermain', 'sepak_bola', 'juku_eja', 'tim', 'poin', 'madura_united', 'psm', 'borneo', 'gol', 'melawan', 'unggul', 'lini', 'hasil']</t>
+          <t>['bermain', 'psm_makassar', 'hasil', 'menit', 'melawan', 'borneo', 'portugal', 'laga', 'tim', 'sepak_bola', 'madura_united', 'gol', 'psm', 'bernardo_tavares', 'berhasil', 'poin', 'juku_eja', 'liga', 'pemain', 'pelatih', 'unggul', 'lini']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'sepak_pojok', 'kiper', 'kemenangan', 'piala_dunia', 'sepakan', 'menit', 'tendangan', 'bola', 'maroko', 'skor', 'kerja', 'babak', 'menang', 'umpan', 'laga', 'serangan', 'wasit', 'langsung', 'poin', 'peluang', 'gol', 'hasil', 'gawang']</t>
+          <t>['skor', 'peluang', 'maroko', 'menang', 'langsung', 'wasit', 'tendangan', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'kerja', 'kiper', 'laga', 'bola', 'serangan', 'gol', 'kemenangan', 'sepak_pojok', 'sepakan', 'poin', 'umpan', 'kotak_penalti', 'piala_dunia']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'lawan', 'liga', 'sepak_pojok', 'bernardo_tavares', 'psm_makassar', 'kiper', 'kemenangan', 'berhasil', 'kali', 'menit', 'pemain', 'pelatih', 'tendangan', 'bola', 'skor', 'babak', 'lapangan', 'umpan', 'laga', 'serangan', 'bermain', 'juku_eja', 'tim', 'pertandingan', 'langsung', 'wasit', 'poin', 'madura_united', 'peluang', 'psm', 'gol', 'borneo', 'melawan', 'unggul', 'ketiga', 'lini', 'hasil', 'gawang']</t>
+          <t>['skor', 'peluang', 'bermain', 'langsung', 'wasit', 'psm_makassar', 'tendangan', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'pertandingan', 'melawan', 'borneo', 'kiper', 'laga', 'bola', 'lapangan', 'serangan', 'ketiga', 'tim', 'kali', 'lawan', 'madura_united', 'gol', 'kemenangan', 'psm', 'sepak_pojok', 'bernardo_tavares', 'berhasil', 'poin', 'juku_eja', 'liga', 'pemain', 'umpan', 'kotak_penalti', 'pelatih', 'unggul', 'lini']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['kotak_penalti', 'stadion', 'lawan', 'liga', 'sepak_pojok', 'kiper', 'menit', 'bola', 'skor', 'babak', 'umpan', 'laga', 'serangan', 'tim', 'pertandingan', 'poin', 'peluang', 'gol', 'tembakan', 'hasil', 'gawang']</t>
+          <t>['skor', 'peluang', 'babak', 'hasil', 'menit', 'gawang', 'stadion', 'pertandingan', 'kiper', 'laga', 'bola', 'serangan', 'tim', 'lawan', 'gol', 'tembakan', 'sepak_pojok', 'poin', 'liga', 'umpan', 'kotak_penalti']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['qatar', 'dunia', 'timnas', 'kiper', 'kompetisi', 'piala_dunia', 'berhasil', 'kali', 'indonesia', 'negara', 'maroko', 'babak', 'nasional', 'portugal', 'bermain', 'sepak_bola', 'musim', 'tim', 'prancis', 'langsung', 'inggris', 'ketiga', 'memiliki', 'nama']</t>
+          <t>['indonesia', 'maroko', 'memiliki', 'bermain', 'nasional', 'langsung', 'qatar', 'negara', 'babak', 'prancis', 'musim', 'timnas', 'portugal', 'kiper', 'ketiga', 'kompetisi', 'tim', 'sepak_bola', 'kali', 'dunia', 'inggris', 'berhasil', 'nama', 'piala_dunia']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'sepak_pojok', 'piala_dunia', 'kali', 'menit', 'pemain', 'tendangan', 'bola', 'maroko', 'skor', 'babak', 'menang', 'umpan', 'menghadapi', 'laga', 'portugal', 'prancis', 'langsung', 'wasit', 'peluang', 'inggris', 'gol', 'tembakan', 'hasil', 'gawang']</t>
+          <t>['skor', 'peluang', 'maroko', 'menang', 'langsung', 'wasit', 'tendangan', 'babak', 'prancis', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'menghadapi', 'portugal', 'laga', 'bola', 'kali', 'gol', 'tembakan', 'sepak_pojok', 'inggris', 'umpan', 'pemain', 'kotak_penalti', 'piala_dunia']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['sepakbola', 'memiliki', 'indonesia', 'dunia', 'sepak_bola', 'bola', 'pertandingan']</t>
+          <t>['sepak_bola', 'indonesia', 'pertandingan', 'memiliki', 'sepakbola', 'dunia', 'bola']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['sepakbola', 'inggris', 'klub', 'kali', 'memiliki', 'liga', 'portugal', 'negara', 'musim', 'sepak_bola', 'pertandingan']</t>
+          <t>['musim', 'inggris', 'sepak_bola', 'kali', 'liga', 'pertandingan', 'memiliki', 'sepakbola', 'portugal', 'klub', 'negara']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'lawan', 'sepak_pojok', 'kiper', 'kemenangan', 'piala_dunia', 'kali', 'menit', 'pemain', 'tendangan', 'bola', 'bernardo', 'skor', 'babak', 'menang', 'umpan', 'laga', 'portugal', 'serangan', 'pertandingan', 'wasit', 'poin', 'peluang', 'gol', 'tembakan', 'melawan', 'unggul', 'gawang']</t>
+          <t>['skor', 'peluang', 'menang', 'wasit', 'tendangan', 'babak', 'melepaskan_tembakan', 'bernardo', 'menit', 'gawang', 'pertandingan', 'melawan', 'portugal', 'kiper', 'laga', 'bola', 'serangan', 'kali', 'lawan', 'gol', 'tembakan', 'kemenangan', 'sepak_pojok', 'poin', 'umpan', 'pemain', 'kotak_penalti', 'unggul', 'piala_dunia']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['lawan', 'qatar', 'sepakbola', 'kemenangan', 'piala_dunia', 'kali', 'pemain', 'kalah', 'pelatih', 'babak', 'menang', 'lapangan', 'bagus', 'menghadapi', 'laga', 'sepak_bola', 'poin', 'gol', 'melawan', 'unggul', 'memiliki', 'gawang']</t>
+          <t>['memiliki', 'menang', 'bagus', 'qatar', 'babak', 'gawang', 'menghadapi', 'melawan', 'sepakbola', 'laga', 'lapangan', 'sepak_bola', 'kali', 'lawan', 'kalah', 'gol', 'kemenangan', 'poin', 'pemain', 'pelatih', 'unggul', 'piala_dunia']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['final', 'qatar', 'dunia', 'kemenangan', 'piala_dunia', 'argentina', 'kali', 'menit', 'pemain', 'negara', 'kalah', 'pelatih', 'messi', 'maroko', 'skor', 'babak', 'menang', 'laga', 'bermain', 'sepak_bola', 'tim', 'prancis', 'pertandingan', 'inggris', 'gol', 'ketiga', 'memiliki', 'hasil']</t>
+          <t>['skor', 'maroko', 'memiliki', 'menang', 'bermain', 'qatar', 'negara', 'babak', 'prancis', 'hasil', 'menit', 'pertandingan', 'laga', 'ketiga', 'tim', 'sepak_bola', 'kali', 'kalah', 'gol', 'dunia', 'kemenangan', 'argentina', 'inggris', 'pemain', 'final', 'pelatih', 'piala_dunia', 'messi']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['kotak_penalti', 'stadion', 'lawan', 'liga', 'bernardo_tavares', 'psm_makassar', 'pelatih', 'bernardo', 'bagus', 'menghadapi', 'laga', 'bermain', 'sepak_bola', 'juku_eja', 'musim', 'tim', 'wasit', 'poin', 'psm', 'aturan', 'hasil']</t>
+          <t>['bermain', 'bagus', 'wasit', 'psm_makassar', 'hasil', 'musim', 'bernardo', 'stadion', 'menghadapi', 'laga', 'tim', 'sepak_bola', 'lawan', 'psm', 'aturan', 'poin', 'juku_eja', 'liga', 'kotak_penalti', 'pelatih', 'bernardo_tavares']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['sepak_bola', 'kompetisi', 'psm', 'klub', 'stadion', 'kali', 'liga', 'indonesia', 'pelatih', 'juku_eja', 'bola', 'psm_makassar']</t>
+          <t>['psm_makassar', 'klub', 'sepak_bola', 'kali', 'juku_eja', 'indonesia', 'liga', 'stadion', 'pelatih', 'bola', 'kompetisi', 'psm']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['lawan', 'liga', 'bernardo_tavares', 'psm_makassar', 'kali', 'menit', 'indonesia', 'pemain', 'pelatih', 'bernardo', 'menghadapi', 'bermain', 'sepak_bola', 'juku_eja', 'tim', 'pertandingan', 'wasit', 'peluang', 'psm', 'borneo', 'aturan', 'melawan', 'lini', 'nama']</t>
+          <t>['peluang', 'indonesia', 'bermain', 'wasit', 'psm_makassar', 'bernardo', 'menit', 'pertandingan', 'menghadapi', 'melawan', 'borneo', 'tim', 'sepak_bola', 'kali', 'lawan', 'nama', 'psm', 'aturan', 'juku_eja', 'liga', 'pemain', 'pelatih', 'bernardo_tavares', 'lini']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['nasional', 'klub', 'atlet', 'bagus', 'jakarta', 'laga', 'indonesia', 'sepak_bola', 'bola', 'pertandingan', 'langsung']</t>
+          <t>['klub', 'sepak_bola', 'indonesia', 'atlet', 'pertandingan', 'bagus', 'nasional', 'langsung', 'jakarta', 'laga', 'bola']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['stadion', 'liga', 'bernardo_tavares', 'psm_makassar', 'kompetisi', 'atlet', 'pemain', 'pelatih', 'bernardo', 'lapangan', 'laga', 'musim', 'sepak_bola', 'bermain', 'tim', 'pertandingan', 'langsung', 'madura_united', 'psm', 'melawan']</t>
+          <t>['atlet', 'bermain', 'langsung', 'psm_makassar', 'musim', 'bernardo', 'stadion', 'pertandingan', 'melawan', 'laga', 'lapangan', 'kompetisi', 'tim', 'sepak_bola', 'madura_united', 'psm', 'liga', 'pemain', 'pelatih', 'bernardo_tavares']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['stadion', 'liga', 'bernardo_tavares', 'psm_makassar', 'pemain', 'pelatih', 'bola', 'bernardo', 'skor', 'kerja', 'bagus', 'menghadapi', 'laga', 'bermain', 'sepak_bola', 'juku_eja', 'tim', 'pertandingan', 'madura_united', 'peluang', 'psm', 'gol', 'borneo', 'melawan', 'lini', 'gawang']</t>
+          <t>['skor', 'peluang', 'bermain', 'bagus', 'psm_makassar', 'bernardo', 'gawang', 'stadion', 'pertandingan', 'kerja', 'menghadapi', 'melawan', 'borneo', 'laga', 'bola', 'tim', 'sepak_bola', 'madura_united', 'gol', 'psm', 'juku_eja', 'liga', 'pemain', 'pelatih', 'bernardo_tavares', 'lini']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['lawan', 'liga', 'bernardo_tavares', 'psm_makassar', 'kemenangan', 'menit', 'pemain', 'pelatih', 'bernardo', 'kerja', 'bagus', 'menghadapi', 'laga', 'bermain', 'sepak_bola', 'tim', 'poin', 'peluang', 'psm', 'borneo', 'melawan', 'lini']</t>
+          <t>['peluang', 'bermain', 'bagus', 'psm_makassar', 'bernardo', 'menit', 'menghadapi', 'kerja', 'melawan', 'borneo', 'laga', 'tim', 'sepak_bola', 'lawan', 'kemenangan', 'psm', 'poin', 'liga', 'pemain', 'pelatih', 'bernardo_tavares', 'lini']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['turnamen', 'kompetisi', 'indonesia', 'dunia', 'hasil']</t>
+          <t>['hasil', 'indonesia', 'dunia', 'kompetisi', 'turnamen']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'stadion', 'sepak_pojok', 'kemenangan', 'sepakan', 'menit', 'pemain', 'bola', 'skor', 'kerja', 'babak', 'umpan', 'bagus', 'laga', 'bermain', 'tim', 'melebar', 'pertandingan', 'wasit', 'poin', 'peluang', 'gol', 'tembakan', 'unggul', 'ketiga', 'lini', 'hasil', 'gawang']</t>
+          <t>['skor', 'peluang', 'bermain', 'bagus', 'wasit', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'stadion', 'pertandingan', 'kerja', 'melebar', 'laga', 'bola', 'ketiga', 'tim', 'gol', 'tembakan', 'kemenangan', 'sepak_pojok', 'sepakan', 'poin', 'umpan', 'pemain', 'kotak_penalti', 'unggul', 'lini']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['sepak_bola', 'lapangan', 'melawan', 'kali']</t>
+          <t>['melawan', 'sepak_bola', 'lapangan', 'kali']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['sepak_bola', 'kompetisi', 'psm', 'stadion', 'bagus', 'liga', 'portugal', 'indonesia', 'bernardo_tavares', 'tim', 'pelatih', 'bola', 'psm_makassar', 'bernardo', 'pertandingan']</t>
+          <t>['psm_makassar', 'bernardo', 'sepak_bola', 'indonesia', 'liga', 'stadion', 'pertandingan', 'bagus', 'portugal', 'pelatih', 'bernardo_tavares', 'bola', 'kompetisi', 'psm', 'tim']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['babak', 'piala_dunia', 'gol', 'olahraga', 'nama', 'pemain', 'bermain', 'sepak_bola', 'tim', 'prancis', 'pertandingan']</t>
+          <t>['prancis', 'olahraga', 'sepak_bola', 'pemain', 'tim', 'pertandingan', 'bermain', 'gol', 'nama', 'piala_dunia', 'babak']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['stadion', 'timnas', 'psm_makassar', 'kali', 'menit', 'indonesia', 'pemain', 'kalah', 'pelatih', 'kerja', 'babak', 'menang', 'laga', 'serangan', 'sepak_bola', 'juku_eja', 'tim', 'pertandingan', 'poin', 'madura_united', 'psm', 'gol']</t>
+          <t>['indonesia', 'menang', 'psm_makassar', 'babak', 'menit', 'stadion', 'pertandingan', 'kerja', 'timnas', 'laga', 'serangan', 'tim', 'sepak_bola', 'kali', 'madura_united', 'kalah', 'gol', 'psm', 'poin', 'juku_eja', 'pemain', 'pelatih']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'liga', 'bernardo_tavares', 'psm_makassar', 'kiper', 'sepakan', 'menit', 'pemain', 'tendangan', 'bola', 'skor', 'babak', 'umpan', 'menghadapi', 'laga', 'serangan', 'bermain', 'juku_eja', 'tim', 'melebar', 'pertandingan', 'langsung', 'peluang', 'psm', 'gol', 'lini', 'gawang']</t>
+          <t>['skor', 'peluang', 'bermain', 'langsung', 'psm_makassar', 'tendangan', 'babak', 'melepaskan_tembakan', 'menit', 'gawang', 'pertandingan', 'menghadapi', 'melebar', 'kiper', 'laga', 'bola', 'serangan', 'tim', 'gol', 'psm', 'sepakan', 'juku_eja', 'liga', 'pemain', 'umpan', 'kotak_penalti', 'bernardo_tavares', 'lini']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['klub', 'berhasil', 'stadion', 'laga', 'indonesia', 'musim', 'kalah', 'jakarta', 'pertandingan']</t>
+          <t>['klub', 'musim', 'berhasil', 'indonesia', 'stadion', 'pertandingan', 'kalah', 'laga', 'jakarta']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'lawan', 'sepak_pojok', 'kiper', 'kali', 'menit', 'pemain', 'tendangan', 'bola', 'babak', 'umpan', 'laga', 'portugal', 'pertandingan', 'wasit', 'gol', 'tembakan', 'unggul', 'gawang']</t>
+          <t>['wasit', 'tendangan', 'babak', 'melepaskan_tembakan', 'menit', 'gawang', 'pertandingan', 'portugal', 'kiper', 'laga', 'bola', 'kali', 'lawan', 'gol', 'tembakan', 'sepak_pojok', 'umpan', 'pemain', 'kotak_penalti', 'unggul']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['lawan', 'sepak_pojok', 'kiper', 'piala_dunia', 'sepakan', 'menit', 'pemain', 'bola', 'kerja', 'babak', 'lapangan', 'umpan', 'laga', 'serangan', 'tim', 'pertandingan', 'wasit', 'peluang', 'gol', 'gawang']</t>
+          <t>['peluang', 'wasit', 'babak', 'menit', 'gawang', 'pertandingan', 'kerja', 'kiper', 'laga', 'bola', 'lapangan', 'serangan', 'tim', 'lawan', 'gol', 'sepak_pojok', 'sepakan', 'umpan', 'pemain', 'piala_dunia']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['melepaskan_tembakan', 'kotak_penalti', 'qatar', 'sepak_pojok', 'dunia', 'kiper', 'piala_dunia', 'sepakan', 'berhasil', 'kali', 'menit', 'pemain', 'bola', 'skor', 'kerja', 'babak', 'lapangan', 'umpan', 'menghadapi', 'laga', 'serangan', 'bermain', 'melebar', 'tim', 'pertandingan', 'langsung', 'poin', 'peluang', 'gol', 'tembakan', 'unggul', 'ketiga', 'hasil', 'gawang']</t>
+          <t>['skor', 'peluang', 'bermain', 'langsung', 'qatar', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'pertandingan', 'kerja', 'menghadapi', 'melebar', 'kiper', 'laga', 'bola', 'lapangan', 'serangan', 'ketiga', 'tim', 'kali', 'gol', 'tembakan', 'dunia', 'sepak_pojok', 'berhasil', 'sepakan', 'poin', 'umpan', 'pemain', 'kotak_penalti', 'unggul', 'piala_dunia']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['sepakbola', 'nasional', 'piala_dunia', 'inggris', 'atlet', 'berhasil', 'memiliki', 'qatar', 'pemain', 'dunia', 'timnas', 'sepak_bola', 'bola', 'tim', 'pertandingan', 'langsung']</t>
+          <t>['inggris', 'sepak_bola', 'berhasil', 'pemain', 'atlet', 'pertandingan', 'memiliki', 'timnas', 'nasional', 'langsung', 'qatar', 'sepakbola', 'dunia', 'bola', 'piala_dunia', 'tim']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['stadion', 'lawan', 'liga', 'psm_makassar', 'kemenangan', 'kompetisi', 'berhasil', 'kali', 'pemain', 'kalah', 'pelatih', 'skor', 'menang', 'bagus', 'menghadapi', 'laga', 'bermain', 'sepak_bola', 'tim', 'poin', 'psm', 'borneo', 'gol', 'melawan', 'unggul']</t>
+          <t>['skor', 'bermain', 'bagus', 'menang', 'psm_makassar', 'stadion', 'menghadapi', 'melawan', 'borneo', 'laga', 'kompetisi', 'tim', 'sepak_bola', 'kali', 'lawan', 'kalah', 'gol', 'kemenangan', 'psm', 'berhasil', 'poin', 'liga', 'pemain', 'pelatih', 'unggul']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['kerja', 'berhasil', 'stadion', 'kali', 'memiliki', 'jakarta', 'olahraga', 'sepak_bola', 'terkait']</t>
+          <t>['olahraga', 'sepak_bola', 'berhasil', 'kali', 'stadion', 'memiliki', 'kerja', 'terkait', 'jakarta']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['turnamen', 'babak', 'atlet', 'lapangan', 'menghadapi', 'final', 'indonesia', 'pemain', 'pelatih', 'pertandingan']</t>
+          <t>['indonesia', 'pemain', 'atlet', 'pertandingan', 'menghadapi', 'final', 'pelatih', 'lapangan', 'turnamen', 'babak']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['kotak_penalti', 'stadion', 'liga', 'sepak_pojok', 'kiper', 'kali', 'menit', 'pemain', 'tendangan', 'bola', 'skor', 'babak', 'umpan', 'laga', 'serangan', 'bermain', 'tim', 'pertandingan', 'wasit', 'langsung', 'peluang', 'gol', 'gawang']</t>
+          <t>['skor', 'peluang', 'bermain', 'langsung', 'wasit', 'tendangan', 'babak', 'menit', 'gawang', 'stadion', 'pertandingan', 'kiper', 'laga', 'bola', 'serangan', 'tim', 'kali', 'gol', 'sepak_pojok', 'liga', 'pemain', 'umpan', 'kotak_penalti']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['turnamen', 'klub', 'final', 'qatar', 'dunia', 'timnas', 'sepakbola', 'piala_dunia', 'argentina', 'pemain', 'pelatih', 'messi', 'nasional', 'laga', 'bermain', 'sepak_bola', 'tim', 'pertandingan', 'langsung', 'memiliki', 'nama']</t>
+          <t>['pelatih', 'memiliki', 'bermain', 'nasional', 'langsung', 'qatar', 'pertandingan', 'timnas', 'sepakbola', 'laga', 'tim', 'sepak_bola', 'dunia', 'klub', 'argentina', 'turnamen', 'pemain', 'final', 'nama', 'piala_dunia', 'messi']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['nasional', 'klub', 'atlet', 'kali', 'bagus', 'memiliki', 'nama', 'indonesia', 'dunia', 'olahraga', 'lini', 'basket']</t>
+          <t>['olahraga', 'basket', 'kali', 'indonesia', 'atlet', 'nama', 'memiliki', 'bagus', 'nasional', 'dunia', 'klub', 'lini']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['sepakbola', 'argentina', 'memiliki', 'indonesia', 'timnas', 'sepak_bola', 'tim', 'pertandingan', 'langsung']</t>
+          <t>['sepak_bola', 'indonesia', 'pertandingan', 'memiliki', 'timnas', 'langsung', 'sepakbola', 'argentina', 'tim']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['sepakbola', 'klub', 'liga', 'indonesia', 'pemain', 'sepak_bola', 'tim']</t>
+          <t>['sepak_bola', 'indonesia', 'pemain', 'liga', 'sepakbola', 'klub', 'tim']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['sepak_pojok', 'kemenangan', 'menit', 'kalah', 'bola', 'skor', 'babak', 'menang', 'umpan', 'laga', 'bermain', 'musim', 'tim', 'pertandingan', 'poin', 'inggris', 'gol', 'unggul', 'hasil', 'gawang']</t>
+          <t>['skor', 'bermain', 'menang', 'babak', 'hasil', 'musim', 'menit', 'gawang', 'pertandingan', 'laga', 'bola', 'tim', 'kalah', 'gol', 'kemenangan', 'sepak_pojok', 'inggris', 'poin', 'umpan', 'unggul']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['klub', 'liga', 'bernardo_tavares', 'timnas', 'psm_makassar', 'kemenangan', 'kompetisi', 'kali', 'indonesia', 'pemain', 'negara', 'pelatih', 'skor', 'bagus', 'sepak_bola', 'juku_eja', 'tim', 'poin', 'psm', 'gol', 'ketiga', 'memiliki', 'hasil']</t>
+          <t>['skor', 'indonesia', 'memiliki', 'bagus', 'psm_makassar', 'negara', 'hasil', 'timnas', 'ketiga', 'kompetisi', 'tim', 'sepak_bola', 'kali', 'gol', 'kemenangan', 'klub', 'psm', 'poin', 'juku_eja', 'liga', 'pemain', 'pelatih', 'bernardo_tavares']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['indonesia', 'dunia', 'pertandingan']</t>
+          <t>['indonesia', 'pertandingan', 'dunia']</t>
         </is>
       </c>
       <c r="F50" t="n">

--- a/what/olahraga/df_result_lda.xlsx
+++ b/what/olahraga/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['peluang', 'sepakan', 'menit', 'gawang', 'umpan', 'bermain', 'kotak_penalti', 'melebar', 'gol', 'kiper', 'laga', 'bola', 'serangan', 'babak']</t>
+          <t>['sepakan', 'kiper', 'babak', 'laga', 'kotak_penalti', 'menit', 'melebar', 'gawang', 'peluang', 'serangan', 'gol', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['langsung', 'turnamen', 'bermain']</t>
+          <t>['juara', 'turnamen', 'mengaku', 'bermain']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -610,7 +610,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['psm_makassar', 'musim', 'sepak_bola', 'berhasil', 'juku_eja', 'liga', 'pemain', 'lawan', 'umpan', 'bagus', 'pelatih', 'bernardo_tavares', 'bola', 'kompetisi', 'psm', 'lini', 'tim']</t>
+          <t>['bola', 'pemain', 'berhasil', 'musim', 'lawan', 'psm_makassar', 'lini', 'juku_eja', 'kompetisi', 'liga', 'bernardo_tavares', 'mencetak_gol', 'pelatih', 'psm', 'tim', 'bagus', 'jepang']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['skor', 'maroko', 'pelatih', 'bermain', 'langsung', 'qatar', 'prancis', 'hasil', 'musim', 'menit', 'stadion', 'pertandingan', 'timnas', 'portugal', 'terkait', 'laga', 'ketiga', 'tim', 'sepak_bola', 'kali', 'lawan', 'gol', 'tembakan', 'dunia', 'klub', 'inggris', 'berhasil', 'liga', 'pemain', 'nama', 'piala_dunia']</t>
+          <t>['qatar', 'prancis', 'musim', 'lawan', 'nama', 'kali', 'memilih', 'tembakan', 'skor', 'pemain', 'piala_dunia', 'hasil', 'pertandingan', 'sepak_bola', 'juara', 'gol', 'inggris', 'tim', 'berhasil', 'menit', 'klub', 'portugal', 'timnas', 'terkait', 'laga', 'membawa', 'dunia', 'maroko', 'liga', 'mencetak_gol', 'pelatih', 'bermain']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['peluang', 'langsung', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'pertandingan', 'kiper', 'laga', 'bola', 'serangan', 'tim', 'kali', 'kalah', 'gol', 'tembakan', 'sepak_pojok', 'inggris', 'berhasil', 'sepakan', 'poin', 'liga', 'umpan', 'kotak_penalti', 'unggul']</t>
+          <t>['umpan', 'kali', 'gawang', 'sepak_pojok', 'tembakan', 'unggul', 'hasil', 'pertandingan', 'serangan', 'gol', 'inggris', 'tim', 'peluang', 'poin', 'sepakan', 'babak', 'kalah', 'berhasil', 'melepaskan_tembakan', 'menit', 'kiper', 'laga', 'kotak_penalti', 'mencetak_gol', 'bola']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['skor', 'memiliki', 'menang', 'bagus', 'psm_makassar', 'hasil', 'pertandingan', 'melawan', 'borneo', 'portugal', 'laga', 'tim', 'sepak_bola', 'lawan', 'madura_united', 'kalah', 'kemenangan', 'psm', 'poin', 'liga', 'pemain', 'pelatih', 'bernardo_tavares']</t>
+          <t>['melawan', 'memiliki', 'tavares', 'lawan', 'madura_united', 'bagus', 'skor', 'pemain', 'hasil', 'pertandingan', 'kemenangan', 'tim', 'poin', 'kalah', 'portugal', 'psm', 'laga', 'membawa', 'psm_makassar', 'borneo', 'liga', 'pelatih', 'bola']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -989,7 +989,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['klub', 'hasil', 'sepak_bola', 'liga', 'lawan', 'stadion', 'pertandingan', 'memiliki', 'nasional', 'langsung', 'melawan', 'nama', 'terkait', 'laga', 'jakarta', 'tim']</t>
+          <t>['mengaku', 'melawan', 'memiliki', 'lawan', 'nama', 'hasil', 'pertandingan', 'sepak_bola', 'tim', 'aksi', 'nasional', 'jakarta', 'pria', 'klub', 'terkait', 'digelar', 'laga', 'membawa', 'liga']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['memiliki', 'menang', 'psm_makassar', 'menit', 'pertandingan', 'laga', 'serangan', 'sepak_bola', 'lawan', 'madura_united', 'kalah', 'gol', 'psm', 'berhasil', 'poin', 'juku_eja', 'liga', 'pemain', 'lini']</t>
+          <t>['pertandingan', 'digelar', 'memiliki', 'laga', 'kalah', 'berhasil', 'lawan', 'menit', 'psm_makassar', 'madura_united', 'lini', 'liga', 'serangan', 'gol', 'psm', 'juku_eja', 'pemain']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['bermain', 'psm_makassar', 'hasil', 'menit', 'melawan', 'borneo', 'portugal', 'laga', 'tim', 'sepak_bola', 'madura_united', 'gol', 'psm', 'bernardo_tavares', 'berhasil', 'poin', 'juku_eja', 'liga', 'pemain', 'pelatih', 'unggul', 'lini']</t>
+          <t>['melawan', 'tavares', 'madura_united', 'unggul', 'juku_eja', 'pemain', 'hasil', 'tim', 'poin', 'berhasil', 'lini', 'menit', 'portugal', 'bernardo_tavares', 'psm', 'laga', 'psm_makassar', 'borneo', 'liga', 'pelatih', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'maroko', 'menang', 'langsung', 'wasit', 'tendangan', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'kerja', 'kiper', 'laga', 'bola', 'serangan', 'gol', 'kemenangan', 'sepak_pojok', 'sepakan', 'poin', 'umpan', 'kotak_penalti', 'piala_dunia']</t>
+          <t>['wasit', 'gawang', 'sepak_pojok', 'skor', 'tendangan', 'hasil', 'kemenangan', 'serangan', 'gol', 'peluang', 'poin', 'sepakan', 'babak', 'melepaskan_tembakan', 'menit', 'kiper', 'digelar', 'laga', 'kotak_penalti', 'dunia', 'maroko', 'kerja', 'bola']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'bermain', 'langsung', 'wasit', 'psm_makassar', 'tendangan', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'pertandingan', 'melawan', 'borneo', 'kiper', 'laga', 'bola', 'lapangan', 'serangan', 'ketiga', 'tim', 'kali', 'lawan', 'madura_united', 'gol', 'kemenangan', 'psm', 'sepak_pojok', 'bernardo_tavares', 'berhasil', 'poin', 'juku_eja', 'liga', 'pemain', 'umpan', 'kotak_penalti', 'pelatih', 'unggul', 'lini']</t>
+          <t>['wasit', 'melawan', 'tavares', 'lawan', 'umpan', 'kali', 'madura_united', 'gawang', 'sepak_pojok', 'unggul', 'juku_eja', 'skor', 'pemain', 'tendangan', 'hasil', 'pertandingan', 'kemenangan', 'serangan', 'gol', 'tim', 'peluang', 'poin', 'lapangan', 'babak', 'berhasil', 'lini', 'melepaskan_tembakan', 'menit', 'psm', 'kiper', 'laga', 'kotak_penalti', 'membawa', 'psm_makassar', 'borneo', 'mencetak_gol', 'pelatih', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'babak', 'hasil', 'menit', 'gawang', 'stadion', 'pertandingan', 'kiper', 'laga', 'bola', 'serangan', 'tim', 'lawan', 'gol', 'tembakan', 'sepak_pojok', 'poin', 'liga', 'umpan', 'kotak_penalti']</t>
+          <t>['lawan', 'umpan', 'gawang', 'sepak_pojok', 'tembakan', 'skor', 'hasil', 'pertandingan', 'serangan', 'gol', 'tim', 'peluang', 'poin', 'babak', 'menit', 'kiper', 'laga', 'kotak_penalti', 'liga', 'mencetak_gol', 'bola']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['indonesia', 'maroko', 'memiliki', 'bermain', 'nasional', 'langsung', 'qatar', 'negara', 'babak', 'prancis', 'musim', 'timnas', 'portugal', 'kiper', 'ketiga', 'kompetisi', 'tim', 'sepak_bola', 'kali', 'dunia', 'inggris', 'berhasil', 'nama', 'piala_dunia']</t>
+          <t>['qatar', 'prancis', 'memiliki', 'musim', 'nama', 'kali', 'indonesia', 'piala_dunia', 'sepak_bola', 'inggris', 'tim', 'terbaik', 'nasional', 'babak', 'berhasil', 'portugal', 'kompetisi', 'negara', 'kiper', 'digelar', 'dunia', 'maroko', 'bermain']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'maroko', 'menang', 'langsung', 'wasit', 'tendangan', 'babak', 'prancis', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'menghadapi', 'portugal', 'laga', 'bola', 'kali', 'gol', 'tembakan', 'sepak_pojok', 'inggris', 'umpan', 'pemain', 'kotak_penalti', 'piala_dunia']</t>
+          <t>['wasit', 'prancis', 'kali', 'gawang', 'sepak_pojok', 'tembakan', 'skor', 'pemain', 'tendangan', 'piala_dunia', 'hasil', 'gol', 'inggris', 'peluang', 'menghadapi', 'babak', 'melepaskan_tembakan', 'menit', 'portugal', 'digelar', 'laga', 'kotak_penalti', 'maroko', 'bola']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['sepak_bola', 'indonesia', 'pertandingan', 'memiliki', 'sepakbola', 'dunia', 'bola']</t>
+          <t>['sepakbola', 'sepak_bola', 'pertandingan', 'memiliki', 'dunia', 'indonesia', 'bola']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['musim', 'inggris', 'sepak_bola', 'kali', 'liga', 'pertandingan', 'memiliki', 'sepakbola', 'portugal', 'klub', 'negara']</t>
+          <t>['sepakbola', 'terbaik', 'sepak_bola', 'pertandingan', 'memiliki', 'musim', 'juara', 'kali', 'klub', 'portugal', 'liga', 'mencetak_gol', 'negara', 'inggris']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'menang', 'wasit', 'tendangan', 'babak', 'melepaskan_tembakan', 'bernardo', 'menit', 'gawang', 'pertandingan', 'melawan', 'portugal', 'kiper', 'laga', 'bola', 'serangan', 'kali', 'lawan', 'gol', 'tembakan', 'kemenangan', 'sepak_pojok', 'poin', 'umpan', 'pemain', 'kotak_penalti', 'unggul', 'piala_dunia']</t>
+          <t>['wasit', 'bernardo', 'melawan', 'lawan', 'kali', 'sepak_pojok', 'tembakan', 'unggul', 'skor', 'pemain', 'tendangan', 'piala_dunia', 'kemenangan', 'pertandingan', 'serangan', 'gol', 'peluang', 'poin', 'babak', 'melepaskan_tembakan', 'menit', 'portugal', 'kiper', 'digelar', 'laga', 'kotak_penalti', 'membawa', 'dunia', 'mencetak_gol', 'bola']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['memiliki', 'menang', 'bagus', 'qatar', 'babak', 'gawang', 'menghadapi', 'melawan', 'sepakbola', 'laga', 'lapangan', 'sepak_bola', 'kali', 'lawan', 'kalah', 'gol', 'kemenangan', 'poin', 'pemain', 'pelatih', 'unggul', 'piala_dunia']</t>
+          <t>['qatar', 'melawan', 'memiliki', 'lawan', 'kali', 'gawang', 'unggul', 'bagus', 'pemain', 'piala_dunia', 'sepak_bola', 'kemenangan', 'jepang', 'latihan', 'sepakbola', 'terbaik', 'lapangan', 'poin', 'menghadapi', 'babak', 'kalah', 'laga', 'pelatih']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['skor', 'maroko', 'memiliki', 'menang', 'bermain', 'qatar', 'negara', 'babak', 'prancis', 'hasil', 'menit', 'pertandingan', 'laga', 'ketiga', 'tim', 'sepak_bola', 'kali', 'kalah', 'gol', 'dunia', 'kemenangan', 'argentina', 'inggris', 'pemain', 'final', 'pelatih', 'piala_dunia', 'messi']</t>
+          <t>['qatar', 'prancis', 'memiliki', 'kali', 'skor', 'pemain', 'piala_dunia', 'hasil', 'pertandingan', 'sepak_bola', 'kemenangan', 'argentina', 'messi', 'juara', 'gol', 'inggris', 'tim', 'babak', 'final', 'kalah', 'menit', 'negara', 'laga', 'dunia', 'maroko', 'pelatih', 'bermain']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['bermain', 'bagus', 'wasit', 'psm_makassar', 'hasil', 'musim', 'bernardo', 'stadion', 'menghadapi', 'laga', 'tim', 'sepak_bola', 'lawan', 'psm', 'aturan', 'poin', 'juku_eja', 'liga', 'kotak_penalti', 'pelatih', 'bernardo_tavares']</t>
+          <t>['wasit', 'bernardo', 'musim', 'tavares', 'lawan', 'juku_eja', 'bagus', 'hasil', 'juara', 'tim', 'poin', 'menghadapi', 'aturan', 'bernardo_tavares', 'psm', 'laga', 'kotak_penalti', 'psm_makassar', 'liga', 'pelatih', 'bermain']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['psm_makassar', 'klub', 'sepak_bola', 'kali', 'juku_eja', 'indonesia', 'liga', 'stadion', 'pelatih', 'bola', 'kompetisi', 'psm']</t>
+          <t>['terbaik', 'mengaku', 'sepak_bola', 'digelar', 'pria', 'psm_makassar', 'kali', 'klub', 'indonesia', 'kompetisi', 'liga', 'pelatih', 'psm', 'juku_eja', 'bola']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['peluang', 'indonesia', 'bermain', 'wasit', 'psm_makassar', 'bernardo', 'menit', 'pertandingan', 'menghadapi', 'melawan', 'borneo', 'tim', 'sepak_bola', 'kali', 'lawan', 'nama', 'psm', 'aturan', 'juku_eja', 'liga', 'pemain', 'pelatih', 'bernardo_tavares', 'lini']</t>
+          <t>['wasit', 'bernardo', 'melawan', 'lawan', 'nama', 'kali', 'indonesia', 'juku_eja', 'pemain', 'sepak_bola', 'pertandingan', 'tim', 'peluang', 'menghadapi', 'aturan', 'lini', 'menit', 'bernardo_tavares', 'psm', 'psm_makassar', 'borneo', 'pelatih', 'bermain']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['klub', 'sepak_bola', 'indonesia', 'atlet', 'pertandingan', 'bagus', 'nasional', 'langsung', 'jakarta', 'laga', 'bola']</t>
+          <t>['mengaku', 'nasional', 'sepak_bola', 'pertandingan', 'digelar', 'laga', 'jakarta', 'pria', 'memilih', 'klub', 'atlet', 'indonesia', 'bagus']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['atlet', 'bermain', 'langsung', 'psm_makassar', 'musim', 'bernardo', 'stadion', 'pertandingan', 'melawan', 'laga', 'lapangan', 'kompetisi', 'tim', 'sepak_bola', 'madura_united', 'psm', 'liga', 'pemain', 'pelatih', 'bernardo_tavares']</t>
+          <t>['bernardo', 'melawan', 'musim', 'tavares', 'madura_united', 'pemain', 'sepak_bola', 'pertandingan', 'atlet', 'tim', 'latihan', 'lapangan', 'kompetisi', 'bernardo_tavares', 'psm', 'laga', 'psm_makassar', 'liga', 'pelatih', 'bermain']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'bermain', 'bagus', 'psm_makassar', 'bernardo', 'gawang', 'stadion', 'pertandingan', 'kerja', 'menghadapi', 'melawan', 'borneo', 'laga', 'bola', 'tim', 'sepak_bola', 'madura_united', 'gol', 'psm', 'juku_eja', 'liga', 'pemain', 'pelatih', 'bernardo_tavares', 'lini']</t>
+          <t>['bernardo', 'melawan', 'madura_united', 'gawang', 'juku_eja', 'bagus', 'skor', 'pemain', 'pertandingan', 'gol', 'tim', 'peluang', 'menghadapi', 'lini', 'bernardo_tavares', 'psm', 'laga', 'membawa', 'psm_makassar', 'borneo', 'liga', 'kerja', 'mencetak_gol', 'pelatih', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['peluang', 'bermain', 'bagus', 'psm_makassar', 'bernardo', 'menit', 'menghadapi', 'kerja', 'melawan', 'borneo', 'laga', 'tim', 'sepak_bola', 'lawan', 'kemenangan', 'psm', 'poin', 'liga', 'pemain', 'pelatih', 'bernardo_tavares', 'lini']</t>
+          <t>['bernardo', 'melawan', 'lawan', 'bagus', 'pemain', 'sepak_bola', 'kemenangan', 'tim', 'peluang', 'poin', 'menghadapi', 'lini', 'menit', 'bernardo_tavares', 'psm', 'laga', 'psm_makassar', 'borneo', 'liga', 'kerja', 'pelatih', 'bermain']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['hasil', 'indonesia', 'dunia', 'kompetisi', 'turnamen']</t>
+          <t>['mengaku', 'hasil', 'turnamen', 'dunia', 'indonesia', 'kompetisi', 'juara']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'bermain', 'bagus', 'wasit', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'stadion', 'pertandingan', 'kerja', 'melebar', 'laga', 'bola', 'ketiga', 'tim', 'gol', 'tembakan', 'kemenangan', 'sepak_pojok', 'sepakan', 'poin', 'umpan', 'pemain', 'kotak_penalti', 'unggul', 'lini']</t>
+          <t>['wasit', 'umpan', 'gawang', 'sepak_pojok', 'tembakan', 'unggul', 'bagus', 'skor', 'hasil', 'pertandingan', 'kemenangan', 'melebar', 'juara', 'gol', 'tim', 'peluang', 'poin', 'sepakan', 'babak', 'melepaskan_tembakan', 'menit', 'laga', 'kotak_penalti', 'membawa', 'kerja', 'mencetak_gol', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['melawan', 'sepak_bola', 'lapangan', 'kali']</t>
+          <t>['kali', 'melawan', 'lapangan', 'sepak_bola']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['psm_makassar', 'bernardo', 'sepak_bola', 'indonesia', 'liga', 'stadion', 'pertandingan', 'bagus', 'portugal', 'pelatih', 'bernardo_tavares', 'bola', 'kompetisi', 'psm', 'tim']</t>
+          <t>['mengaku', 'bola', 'bernardo', 'sepak_bola', 'pertandingan', 'digelar', 'psm_makassar', 'portugal', 'indonesia', 'kompetisi', 'liga', 'bernardo_tavares', 'pelatih', 'psm', 'tim', 'bagus']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['prancis', 'olahraga', 'sepak_bola', 'pemain', 'tim', 'pertandingan', 'bermain', 'gol', 'nama', 'piala_dunia', 'babak']</t>
+          <t>['prancis', 'piala_dunia', 'sepak_bola', 'pertandingan', 'babak', 'pria', 'nama', 'olahraga', 'gol', 'bermain', 'tim', 'pemain']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['indonesia', 'menang', 'psm_makassar', 'babak', 'menit', 'stadion', 'pertandingan', 'kerja', 'timnas', 'laga', 'serangan', 'tim', 'sepak_bola', 'kali', 'madura_united', 'kalah', 'gol', 'psm', 'poin', 'juku_eja', 'pemain', 'pelatih']</t>
+          <t>['madura_united', 'kali', 'indonesia', 'juku_eja', 'pemain', 'pertandingan', 'serangan', 'gol', 'tim', 'babak', 'kalah', 'menit', 'psm', 'timnas', 'digelar', 'laga', 'psm_makassar', 'kerja', 'mencetak_gol']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'bermain', 'langsung', 'psm_makassar', 'tendangan', 'babak', 'melepaskan_tembakan', 'menit', 'gawang', 'pertandingan', 'menghadapi', 'melebar', 'kiper', 'laga', 'bola', 'serangan', 'tim', 'gol', 'psm', 'sepakan', 'juku_eja', 'liga', 'pemain', 'umpan', 'kotak_penalti', 'bernardo_tavares', 'lini']</t>
+          <t>['gawang', 'juku_eja', 'skor', 'pemain', 'tendangan', 'pertandingan', 'melebar', 'serangan', 'gol', 'tim', 'peluang', 'sepakan', 'menghadapi', 'babak', 'lini', 'melepaskan_tembakan', 'menit', 'bernardo_tavares', 'psm', 'kiper', 'laga', 'kotak_penalti', 'psm_makassar', 'liga', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['klub', 'musim', 'berhasil', 'indonesia', 'stadion', 'pertandingan', 'kalah', 'laga', 'jakarta']</t>
+          <t>['pertandingan', 'kalah', 'laga', 'musim', 'jakarta', 'berhasil', 'klub', 'indonesia', 'sang', 'juara']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['wasit', 'tendangan', 'babak', 'melepaskan_tembakan', 'menit', 'gawang', 'pertandingan', 'portugal', 'kiper', 'laga', 'bola', 'kali', 'lawan', 'gol', 'tembakan', 'sepak_pojok', 'umpan', 'pemain', 'kotak_penalti', 'unggul']</t>
+          <t>['wasit', 'lawan', 'kali', 'gawang', 'sepak_pojok', 'tembakan', 'unggul', 'pemain', 'tendangan', 'pertandingan', 'gol', 'babak', 'melepaskan_tembakan', 'menit', 'portugal', 'kiper', 'digelar', 'laga', 'kotak_penalti', 'membawa', 'bola']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['peluang', 'wasit', 'babak', 'menit', 'gawang', 'pertandingan', 'kerja', 'kiper', 'laga', 'bola', 'lapangan', 'serangan', 'tim', 'lawan', 'gol', 'sepak_pojok', 'sepakan', 'umpan', 'pemain', 'piala_dunia']</t>
+          <t>['wasit', 'lawan', 'gawang', 'sepak_pojok', 'pemain', 'pertandingan', 'serangan', 'gol', 'tim', 'peluang', 'sepakan', 'terbaik', 'lapangan', 'babak', 'menit', 'kiper', 'digelar', 'laga', 'dunia', 'kerja', 'mencetak_gol', 'bola']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'bermain', 'langsung', 'qatar', 'babak', 'melepaskan_tembakan', 'hasil', 'menit', 'gawang', 'pertandingan', 'kerja', 'menghadapi', 'melebar', 'kiper', 'laga', 'bola', 'lapangan', 'serangan', 'ketiga', 'tim', 'kali', 'gol', 'tembakan', 'dunia', 'sepak_pojok', 'berhasil', 'sepakan', 'poin', 'umpan', 'pemain', 'kotak_penalti', 'unggul', 'piala_dunia']</t>
+          <t>['qatar', 'kali', 'gawang', 'sepak_pojok', 'tembakan', 'unggul', 'skor', 'pemain', 'piala_dunia', 'hasil', 'pertandingan', 'melebar', 'serangan', 'gol', 'tim', 'peluang', 'poin', 'sepakan', 'lapangan', 'menghadapi', 'babak', 'berhasil', 'melepaskan_tembakan', 'menit', 'kiper', 'laga', 'kotak_penalti', 'dunia', 'kerja', 'mencetak_gol', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['inggris', 'sepak_bola', 'berhasil', 'pemain', 'atlet', 'pertandingan', 'memiliki', 'timnas', 'nasional', 'langsung', 'qatar', 'sepakbola', 'dunia', 'bola', 'piala_dunia', 'tim']</t>
+          <t>['qatar', 'piala_dunia', 'sepakbola', 'nasional', 'timnas', 'sepak_bola', 'pertandingan', 'memiliki', 'berhasil', 'atlet', 'dunia', 'sang', 'inggris', 'tim', 'bola', 'pemain']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['skor', 'bermain', 'bagus', 'menang', 'psm_makassar', 'stadion', 'menghadapi', 'melawan', 'borneo', 'laga', 'kompetisi', 'tim', 'sepak_bola', 'kali', 'lawan', 'kalah', 'gol', 'kemenangan', 'psm', 'berhasil', 'poin', 'liga', 'pemain', 'pelatih', 'unggul']</t>
+          <t>['melawan', 'lawan', 'kali', 'unggul', 'bagus', 'skor', 'pemain', 'kemenangan', 'gol', 'tim', 'poin', 'menghadapi', 'kalah', 'berhasil', 'kompetisi', 'psm', 'laga', 'psm_makassar', 'borneo', 'liga', 'pelatih', 'bermain']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['olahraga', 'sepak_bola', 'berhasil', 'kali', 'stadion', 'memiliki', 'kerja', 'terkait', 'jakarta']</t>
+          <t>['sepak_bola', 'terkait', 'memiliki', 'jakarta', 'berhasil', 'kali', 'olahraga', 'kerja']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['indonesia', 'pemain', 'atlet', 'pertandingan', 'menghadapi', 'final', 'pelatih', 'lapangan', 'turnamen', 'babak']</t>
+          <t>['mengaku', 'lapangan', 'menghadapi', 'babak', 'pertandingan', 'turnamen', 'final', 'atlet', 'indonesia', 'pelatih', 'pemain']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['skor', 'peluang', 'bermain', 'langsung', 'wasit', 'tendangan', 'babak', 'menit', 'gawang', 'stadion', 'pertandingan', 'kiper', 'laga', 'bola', 'serangan', 'tim', 'kali', 'gol', 'sepak_pojok', 'liga', 'pemain', 'umpan', 'kotak_penalti']</t>
+          <t>['wasit', 'umpan', 'kali', 'gawang', 'sepak_pojok', 'skor', 'tendangan', 'pertandingan', 'serangan', 'gol', 'tim', 'aksi', 'peluang', 'terbaik', 'babak', 'menit', 'kiper', 'laga', 'kotak_penalti', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['pelatih', 'memiliki', 'bermain', 'nasional', 'langsung', 'qatar', 'pertandingan', 'timnas', 'sepakbola', 'laga', 'tim', 'sepak_bola', 'dunia', 'klub', 'argentina', 'turnamen', 'pemain', 'final', 'nama', 'piala_dunia', 'messi']</t>
+          <t>['qatar', 'memiliki', 'nama', 'pemain', 'piala_dunia', 'sepak_bola', 'pertandingan', 'turnamen', 'argentina', 'messi', 'tim', 'sepakbola', 'terbaik', 'nasional', 'final', 'klub', 'timnas', 'laga', 'membawa', 'dunia', 'pelatih', 'bermain']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['olahraga', 'basket', 'kali', 'indonesia', 'atlet', 'nama', 'memiliki', 'bagus', 'nasional', 'dunia', 'klub', 'lini']</t>
+          <t>['nasional', 'memiliki', 'basket', 'nama', 'kali', 'klub', 'memilih', 'indonesia', 'atlet', 'olahraga', 'lini', 'dunia', 'bagus']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['sepak_bola', 'indonesia', 'pertandingan', 'memiliki', 'timnas', 'langsung', 'sepakbola', 'argentina', 'tim']</t>
+          <t>['sepakbola', 'timnas', 'sepak_bola', 'pertandingan', 'memiliki', 'indonesia', 'argentina', 'tim']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['sepak_bola', 'indonesia', 'pemain', 'liga', 'sepakbola', 'klub', 'tim']</t>
+          <t>['sepakbola', 'sepak_bola', 'klub', 'indonesia', 'liga', 'tim', 'pemain']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['skor', 'bermain', 'menang', 'babak', 'hasil', 'musim', 'menit', 'gawang', 'pertandingan', 'laga', 'bola', 'tim', 'kalah', 'gol', 'kemenangan', 'sepak_pojok', 'inggris', 'poin', 'umpan', 'unggul']</t>
+          <t>['musim', 'umpan', 'gawang', 'sepak_pojok', 'unggul', 'skor', 'hasil', 'pertandingan', 'kemenangan', 'gol', 'inggris', 'tim', 'poin', 'babak', 'kalah', 'menit', 'laga', 'liga', 'bermain', 'bola']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['skor', 'indonesia', 'memiliki', 'bagus', 'psm_makassar', 'negara', 'hasil', 'timnas', 'ketiga', 'kompetisi', 'tim', 'sepak_bola', 'kali', 'gol', 'kemenangan', 'klub', 'psm', 'poin', 'juku_eja', 'liga', 'pemain', 'pelatih', 'bernardo_tavares']</t>
+          <t>['memiliki', 'tavares', 'kali', 'indonesia', 'juku_eja', 'bagus', 'skor', 'pemain', 'hasil', 'kemenangan', 'gol', 'tim', 'latihan', 'poin', 'klub', 'kompetisi', 'negara', 'psm', 'timnas', 'psm_makassar', 'liga', 'pelatih']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['indonesia', 'pertandingan', 'dunia']</t>
+          <t>['pertandingan', 'digelar', 'dunia', 'indonesia', 'aksi']</t>
         </is>
       </c>
       <c r="F50" t="n">
